--- a/Pruebas Experimentales/Prueba Temperatura/Prueba 20C/PRUEBA_TEMPERATURA_6_20C.xlsx
+++ b/Pruebas Experimentales/Prueba Temperatura/Prueba 20C/PRUEBA_TEMPERATURA_6_20C.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>Timestamp</t>
   </si>
@@ -73,133 +73,103 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>2023-12-09 03:26:00</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:26:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:27:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:28:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:29:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:30:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:31:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:32:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:33:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:34:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:35:59</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:36:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:37:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:38:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:39:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:40:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:41:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:42:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:43:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:44:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:45:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:46:58</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:47:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:48:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:49:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:50:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:51:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:52:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:53:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:54:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:55:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:56:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:57:57</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:58:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 03:59:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:00:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:01:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:02:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:03:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:04:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:05:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:06:56</t>
-  </si>
-  <si>
-    <t>2023-12-09 04:07:56</t>
+    <t>2023-12-12 00:38:49</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:39:50</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:40:51</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:41:52</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:42:53</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:43:54</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:44:55</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:45:56</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:46:57</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:47:58</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:48:59</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:50:00</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:51:01</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:52:02</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:53:03</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:54:04</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:55:06</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:56:07</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:57:08</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:58:09</t>
+  </si>
+  <si>
+    <t>2023-12-12 00:59:10</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:00:11</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:01:12</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:02:13</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:03:14</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:04:15</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:05:16</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:06:17</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:07:18</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:08:19</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:09:20</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:10:21</t>
+  </si>
+  <si>
+    <t>2023-12-12 01:11:23</t>
   </si>
 </sst>
 </file>
@@ -866,138 +836,108 @@
           </c:trendline>
           <c:yVal>
             <c:numRef>
-              <c:f>'Datos crudos'!$E$2:$E$44</c:f>
+              <c:f>'Datos crudos'!$E$2:$E$35</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="43"/>
+                <c:ptCount val="34"/>
                 <c:pt idx="0">
-                  <c:v>25.279720279720198</c:v>
+                  <c:v>25.4108391608391</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.624125874125799</c:v>
+                  <c:v>24.7552447552447</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>23.968531468531399</c:v>
+                  <c:v>24.230769230769202</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>23.7062937062937</c:v>
+                  <c:v>23.837412587412501</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>23.181818181818102</c:v>
+                  <c:v>23.444055944055901</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23.181818181818102</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>22.919580419580399</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>22.788461538461501</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>22.263986013985999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.263986013985999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>22.263986013985999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>22.132867132867101</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>22.0017482517482</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.526223776223699</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22.0017482517482</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>22.6573426573426</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>22.526223776223699</c:v>
-                </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="25">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>22.132867132867101</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="27">
                   <c:v>22.3951048951049</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="28">
                   <c:v>22.132867132867101</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="29">
+                  <c:v>22.263986013985999</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.263986013985999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>22.3951048951049</c:v>
+                </c:pt>
+                <c:pt idx="32">
                   <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22.263986013985999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>22.132867132867101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>21.6083916083915</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>21.870629370629299</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>22.0017482517482</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>21.6083916083915</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>21.739510489510401</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>21.739510489510401</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1256,34 +1196,34 @@
                   <c:v>22.0017482517482</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.739510489510401</c:v>
+                  <c:v>22.3951048951049</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>22.0017482517482</c:v>
+                  <c:v>22.6573426573426</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>21.739510489510401</c:v>
+                  <c:v>22.3951048951049</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>21.6083916083915</c:v>
+                  <c:v>22.132867132867101</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>21.739510489510401</c:v>
+                  <c:v>22.3951048951049</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21.739510489510401</c:v>
+                  <c:v>22.132867132867101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>21.739510489510401</c:v>
+                  <c:v>22.263986013985999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>21.739510489510401</c:v>
+                  <c:v>22.263986013985999</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.739510489510401</c:v>
+                  <c:v>22.3951048951049</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>21.739510489510401</c:v>
+                  <c:v>22.132867132867101</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1380,10 +1320,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>21.775270184361009</c:v>
+                  <c:v>22.287825810553063</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21.775270184361009</c:v>
+                  <c:v>22.287825810553063</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,10 +3045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I45"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3154,17 +3094,17 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>25.279720279720198</v>
+        <v>25.4108391608391</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="H2">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I2" s="4">
         <f>INDEX(C:C,H2)-C2</f>
-        <v>1.1782407404098194E-2</v>
+        <v>6.3541666677338071E-3</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -3181,14 +3121,14 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.624125874125799</v>
+        <v>24.7552447552447</v>
       </c>
       <c r="G3" t="s">
         <v>3</v>
       </c>
       <c r="H3">
         <f>COUNT(E:E)</f>
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
@@ -3205,7 +3145,7 @@
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.968531468531399</v>
+        <v>24.230769230769202</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
@@ -3222,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.7062937062937</v>
+        <v>23.837412587412501</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
@@ -3239,7 +3179,7 @@
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.181818181818102</v>
+        <v>23.444055944055901</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
@@ -3273,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="3">
-        <v>22.919580419580399</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
@@ -3290,7 +3230,7 @@
         <v>0</v>
       </c>
       <c r="E9">
-        <v>22.6573426573426</v>
+        <v>22.788461538461501</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
@@ -3307,7 +3247,7 @@
         <v>0</v>
       </c>
       <c r="E10">
-        <v>22.526223776223699</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
@@ -3324,7 +3264,7 @@
         <v>0</v>
       </c>
       <c r="E11">
-        <v>22.132867132867101</v>
+        <v>22.263986013985999</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
@@ -3341,7 +3281,7 @@
         <v>0</v>
       </c>
       <c r="E12">
-        <v>22.3951048951049</v>
+        <v>22.263986013985999</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -3358,7 +3298,7 @@
         <v>0</v>
       </c>
       <c r="E13">
-        <v>22.132867132867101</v>
+        <v>22.263986013985999</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -3375,7 +3315,7 @@
         <v>0</v>
       </c>
       <c r="E14">
-        <v>22.132867132867101</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
@@ -3392,7 +3332,7 @@
         <v>0</v>
       </c>
       <c r="E15">
-        <v>22.263986013985999</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
@@ -3409,7 +3349,7 @@
         <v>0</v>
       </c>
       <c r="E16">
-        <v>22.0017482517482</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -3426,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="E17">
-        <v>22.0017482517482</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -3443,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="E18">
-        <v>22.132867132867101</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -3460,7 +3400,7 @@
         <v>0</v>
       </c>
       <c r="E19">
-        <v>21.6083916083915</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -3477,7 +3417,7 @@
         <v>0</v>
       </c>
       <c r="E20">
-        <v>21.870629370629299</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -3494,7 +3434,7 @@
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.870629370629299</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -3511,7 +3451,7 @@
         <v>0</v>
       </c>
       <c r="E22">
-        <v>21.739510489510401</v>
+        <v>22.0017482517482</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -3528,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.870629370629299</v>
+        <v>22.526223776223699</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -3545,7 +3485,7 @@
         <v>0</v>
       </c>
       <c r="E24">
-        <v>21.870629370629299</v>
+        <v>22.0017482517482</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -3562,7 +3502,7 @@
         <v>0</v>
       </c>
       <c r="E25">
-        <v>21.870629370629299</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -3579,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="E26">
-        <v>21.739510489510401</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -3596,7 +3536,7 @@
         <v>0</v>
       </c>
       <c r="E27">
-        <v>22.0017482517482</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -3613,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="E28">
-        <v>21.739510489510401</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -3630,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="E29">
-        <v>21.739510489510401</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -3647,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="E30">
-        <v>21.739510489510401</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -3664,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="E31">
-        <v>21.739510489510401</v>
+        <v>22.263986013985999</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -3681,7 +3621,7 @@
         <v>0</v>
       </c>
       <c r="E32">
-        <v>21.739510489510401</v>
+        <v>22.263986013985999</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -3698,7 +3638,7 @@
         <v>0</v>
       </c>
       <c r="E33">
-        <v>21.739510489510401</v>
+        <v>22.3951048951049</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -3715,181 +3655,8 @@
         <v>0</v>
       </c>
       <c r="E34">
-        <v>22.0017482517482</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>6</v>
-      </c>
-      <c r="B35">
-        <v>20</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>21.739510489510401</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>6</v>
-      </c>
-      <c r="B36">
-        <v>20</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>22.0017482517482</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>6</v>
-      </c>
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>21.739510489510401</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>6</v>
-      </c>
-      <c r="B38">
-        <v>20</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D38">
-        <v>0</v>
-      </c>
-      <c r="E38">
-        <v>21.6083916083915</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>6</v>
-      </c>
-      <c r="B39">
-        <v>20</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-      <c r="E39">
-        <v>21.739510489510401</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>6</v>
-      </c>
-      <c r="B40">
-        <v>20</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>21.739510489510401</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>6</v>
-      </c>
-      <c r="B41">
-        <v>20</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>21.739510489510401</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>6</v>
-      </c>
-      <c r="B42">
-        <v>20</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>21.739510489510401</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>6</v>
-      </c>
-      <c r="B43">
-        <v>20</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>21.739510489510401</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>6</v>
-      </c>
-      <c r="B44">
-        <v>20</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>21.739510489510401</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C45" s="5"/>
+        <v>22.132867132867101</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3902,7 +3669,7 @@
   <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3927,7 +3694,7 @@
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 03:57:57</v>
+        <v>2023-12-12 01:01:12</v>
       </c>
       <c r="B2">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A2)-ROW($A$2)-9),"")</f>
@@ -3938,34 +3705,34 @@
       </c>
       <c r="E2">
         <f>AVERAGE(B:B)</f>
-        <v>21.775270184361009</v>
+        <v>22.287825810553063</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 03:58:56</v>
+        <v>2023-12-12 01:02:13</v>
       </c>
       <c r="B3">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A3)-ROW($A$2)-9),"")</f>
-        <v>21.739510489510401</v>
+        <v>22.3951048951049</v>
       </c>
       <c r="D3">
         <v>11</v>
       </c>
       <c r="E3">
         <f>AVERAGE(B:B)</f>
-        <v>21.775270184361009</v>
+        <v>22.287825810553063</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 03:59:56</v>
+        <v>2023-12-12 01:03:14</v>
       </c>
       <c r="B4">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A4)-ROW($A$2)-9),"")</f>
-        <v>22.0017482517482</v>
+        <v>22.6573426573426</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>6</v>
@@ -3974,35 +3741,35 @@
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:00:56</v>
+        <v>2023-12-12 01:04:15</v>
       </c>
       <c r="B5">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A5)-ROW($A$2)-9),"")</f>
-        <v>21.739510489510401</v>
+        <v>22.3951048951049</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S(B:B)</f>
-        <v>0.1186014904370742</v>
+        <v>0.1837366389192466</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:01:56</v>
+        <v>2023-12-12 01:05:16</v>
       </c>
       <c r="B6">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A6)-ROW($A$2)-9),"")</f>
-        <v>21.6083916083915</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:02:56</v>
+        <v>2023-12-12 01:06:17</v>
       </c>
       <c r="B7">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A7)-ROW($A$2)-9),"")</f>
-        <v>21.739510489510401</v>
+        <v>22.3951048951049</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>7</v>
@@ -4011,36 +3778,36 @@
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:03:56</v>
+        <v>2023-12-12 01:07:18</v>
       </c>
       <c r="B8">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A8)-ROW($A$2)-9),"")</f>
-        <v>21.739510489510401</v>
+        <v>22.132867132867101</v>
       </c>
       <c r="E8">
         <f>MAX(B:B)</f>
-        <v>22.0017482517482</v>
+        <v>22.6573426573426</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:04:56</v>
+        <v>2023-12-12 01:08:19</v>
       </c>
       <c r="B9">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A9)-ROW($A$2)-9),"")</f>
-        <v>21.739510489510401</v>
+        <v>22.263986013985999</v>
       </c>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:05:56</v>
+        <v>2023-12-12 01:09:20</v>
       </c>
       <c r="B10">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A10)-ROW($A$2)-9),"")</f>
-        <v>21.739510489510401</v>
+        <v>22.263986013985999</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
@@ -4049,25 +3816,25 @@
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:06:56</v>
+        <v>2023-12-12 01:10:21</v>
       </c>
       <c r="B11">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A11)-ROW($A$2)-9),"")</f>
-        <v>21.739510489510401</v>
+        <v>22.3951048951049</v>
       </c>
       <c r="E11">
         <f>MIN(B:B)</f>
-        <v>21.6083916083915</v>
+        <v>22.0017482517482</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="str">
         <f>IFERROR(INDEX('Datos crudos'!C:C,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>2023-12-09 04:07:56</v>
+        <v>2023-12-12 01:11:23</v>
       </c>
       <c r="B12">
         <f>IFERROR(INDEX('Datos crudos'!E:E,'Datos crudos'!$H$3+ROW($A12)-ROW($A$2)-9),"")</f>
-        <v>21.739510489510401</v>
+        <v>22.132867132867101</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
@@ -4101,8 +3868,8 @@
     </row>
     <row r="17" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E17">
-        <f>E14+0.6</f>
-        <v>20.6</v>
+        <f>E14+0.5</f>
+        <v>20.5</v>
       </c>
     </row>
     <row r="19" spans="5:5" x14ac:dyDescent="0.3">
@@ -4112,12 +3879,12 @@
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E20">
-        <f>E14-0.6</f>
-        <v>19.399999999999999</v>
+        <f>E14-0.5</f>
+        <v>19.5</v>
       </c>
     </row>
     <row r="21" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E21" s="3"/>
+      <c r="E21" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
